--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-message-category-lov.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="180">
   <si>
     <r>
       <rPr>
@@ -1920,298 +1920,304 @@
     <t>description:en_US</t>
   </si>
   <si>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>parent_lov_code</t>
+  </si>
+  <si>
+    <t>parent_tenant_id</t>
+  </si>
+  <si>
+    <t>custom_sql</t>
+  </si>
+  <si>
+    <t>custom_url</t>
+  </si>
+  <si>
+    <t>value_field</t>
+  </si>
+  <si>
+    <t>display_field</t>
+  </si>
+  <si>
+    <t>must_page_flag</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>translation_sql</t>
+  </si>
+  <si>
+    <t>hpfm_lov-8</t>
+  </si>
+  <si>
+    <t>HMSG.TEMP_SERVER.CATEGORY</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>猪齿鱼平台消息设置类别</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hpfm_lov-9</t>
+  </si>
+  <si>
+    <t>HMSG.TEMP_SERVER.SUBCATEGORY</t>
+  </si>
+  <si>
+    <t>消息发送配置子类型</t>
+  </si>
+  <si>
+    <t>LOV独立值集表</t>
+  </si>
+  <si>
+    <t>hpfm_lov_value</t>
+  </si>
+  <si>
+    <t>*lov_value_id</t>
+  </si>
+  <si>
+    <t>#lov_id</t>
+  </si>
+  <si>
+    <t>lov_code</t>
+  </si>
+  <si>
+    <t>#value</t>
+  </si>
+  <si>
+    <t>meaning:zh_CN</t>
+  </si>
+  <si>
+    <t>meaning:en_US</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>order_seq</t>
+  </si>
+  <si>
+    <t>#parent_value</t>
+  </si>
+  <si>
+    <t>start_date_active(DATE)</t>
+  </si>
+  <si>
+    <t>end_date_active(DATE)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>ORGANIZATION</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ENV-NOTICE</t>
+  </si>
+  <si>
+    <t>环境通知</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>CLUSTER-NOTICE</t>
+  </si>
+  <si>
+    <t>集群通知</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>用户的操作触发的其他类型通知</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>SYS-MANAGEMENT</t>
+  </si>
+  <si>
+    <t>系统通知</t>
+  </si>
+  <si>
+    <t>关于平台层一系列操作的通知</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ACCOUNT-SECURITY-NOTICE</t>
+  </si>
+  <si>
+    <t>账户安全通知</t>
+  </si>
+  <si>
+    <t>用户账户密码被修改后，进行安全警示或身份认证</t>
+  </si>
+  <si>
+    <t>ORG-MANAGEMENT</t>
+  </si>
+  <si>
+    <t>组织消息</t>
+  </si>
+  <si>
+    <t>在组织状态、用户等组织资源的管理过程中，进行操作通知</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>PRO-MANAGEMENT</t>
+  </si>
+  <si>
+    <t>项目消息</t>
+  </si>
+  <si>
+    <t>项目管理过程中触发的一系列事件的通知</t>
+  </si>
+  <si>
+    <t>ISSUE-STATUS-CHANGE-NOTICE</t>
+  </si>
+  <si>
+    <t>敏捷通知</t>
+  </si>
+  <si>
+    <t>敏捷管理过程中问题项的处理状态变化：创建、分配、已解决</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>APP-SERVICE-NOTICE</t>
+  </si>
+  <si>
+    <t>应用服务通知</t>
+  </si>
+  <si>
+    <t>应用服务创建失败、启用、停用通知</t>
+  </si>
+  <si>
+    <t>CODE-MANAGEMENT-NOTICE</t>
+  </si>
+  <si>
+    <t>代码管理通知</t>
+  </si>
+  <si>
+    <t>合并请求以及持续集成通知</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>DEPLOYMENT-RESOURCES-NOTICE</t>
+  </si>
+  <si>
+    <t>部署资源通知</t>
+  </si>
+  <si>
+    <t>部署实例、网络、域名等资源失败通知</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>STREAM-CHANGE-NOTICE</t>
+  </si>
+  <si>
+    <t>流水线通知</t>
+  </si>
+  <si>
+    <t>应用服务开发过程中流水线的变更通知，包括：待审批、成功、失败、被终止</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>RESOURCE-SECURITY-NOTICE</t>
+  </si>
+  <si>
+    <t>资源删除验证</t>
+  </si>
+  <si>
+    <t>涉及到实例或资源删除这一系列敏感操作，向用户发送确认信息</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>ADD-OR-IMPORT-USER</t>
+  </si>
+  <si>
+    <t>添加/导入用户通知</t>
+  </si>
+  <si>
+    <t>添加或者导入用户的通知</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>APP-DEPLOYMENT-NOTICE</t>
+  </si>
+  <si>
+    <t>应用部署通知</t>
+  </si>
+  <si>
+    <t>部署实例状态通知</t>
+  </si>
+  <si>
+    <t>值集查询视图头表</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header</t>
+  </si>
+  <si>
+    <t>*view_header_id</t>
+  </si>
+  <si>
+    <t>#view_code</t>
+  </si>
+  <si>
+    <t>view_name:zh_CN</t>
+  </si>
+  <si>
+    <t>view_name:en_US</t>
+  </si>
+  <si>
+    <t>lov_id</t>
+  </si>
+  <si>
     <t>#tenant_id</t>
-  </si>
-  <si>
-    <t>parent_lov_code</t>
-  </si>
-  <si>
-    <t>parent_tenant_id</t>
-  </si>
-  <si>
-    <t>custom_sql</t>
-  </si>
-  <si>
-    <t>custom_url</t>
-  </si>
-  <si>
-    <t>value_field</t>
-  </si>
-  <si>
-    <t>display_field</t>
-  </si>
-  <si>
-    <t>must_page_flag</t>
-  </si>
-  <si>
-    <t>enabled_flag</t>
-  </si>
-  <si>
-    <t>translation_sql</t>
-  </si>
-  <si>
-    <t>hpfm_lov-8</t>
-  </si>
-  <si>
-    <t>HMSG.TEMP_SERVER.CATEGORY</t>
-  </si>
-  <si>
-    <t>IDP</t>
-  </si>
-  <si>
-    <t>猪齿鱼平台消息设置类别</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hpfm_lov-9</t>
-  </si>
-  <si>
-    <t>HMSG.TEMP_SERVER.SUBCATEGORY</t>
-  </si>
-  <si>
-    <t>消息发送配置子类型</t>
-  </si>
-  <si>
-    <t>LOV独立值集表</t>
-  </si>
-  <si>
-    <t>hpfm_lov_value</t>
-  </si>
-  <si>
-    <t>*lov_value_id</t>
-  </si>
-  <si>
-    <t>#lov_id</t>
-  </si>
-  <si>
-    <t>lov_code</t>
-  </si>
-  <si>
-    <t>#value</t>
-  </si>
-  <si>
-    <t>meaning:zh_CN</t>
-  </si>
-  <si>
-    <t>meaning:en_US</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>order_seq</t>
-  </si>
-  <si>
-    <t>#parent_value</t>
-  </si>
-  <si>
-    <t>start_date_active(DATE)</t>
-  </si>
-  <si>
-    <t>end_date_active(DATE)</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>ORGANIZATION</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ENV-NOTICE</t>
-  </si>
-  <si>
-    <t>环境通知</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>CLUSTER-NOTICE</t>
-  </si>
-  <si>
-    <t>集群通知</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>用户的操作触发的其他类型通知</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>SYS-MANAGEMENT</t>
-  </si>
-  <si>
-    <t>系统通知</t>
-  </si>
-  <si>
-    <t>关于平台层一系列操作的通知</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>ACCOUNT-SECURITY-NOTICE</t>
-  </si>
-  <si>
-    <t>账户安全通知</t>
-  </si>
-  <si>
-    <t>用户账户密码被修改后，进行安全警示或身份认证</t>
-  </si>
-  <si>
-    <t>ORG-MANAGEMENT</t>
-  </si>
-  <si>
-    <t>组织消息</t>
-  </si>
-  <si>
-    <t>在组织状态、用户等组织资源的管理过程中，进行操作通知</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>PRO-MANAGEMENT</t>
-  </si>
-  <si>
-    <t>项目消息</t>
-  </si>
-  <si>
-    <t>项目管理过程中触发的一系列事件的通知</t>
-  </si>
-  <si>
-    <t>ISSUE-STATUS-CHANGE-NOTICE</t>
-  </si>
-  <si>
-    <t>敏捷通知</t>
-  </si>
-  <si>
-    <t>敏捷管理过程中问题项的处理状态变化：创建、分配、已解决</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>APP-SERVICE-NOTICE</t>
-  </si>
-  <si>
-    <t>应用服务通知</t>
-  </si>
-  <si>
-    <t>应用服务创建失败、启用、停用通知</t>
-  </si>
-  <si>
-    <t>CODE-MANAGEMENT-NOTICE</t>
-  </si>
-  <si>
-    <t>代码管理通知</t>
-  </si>
-  <si>
-    <t>合并请求以及持续集成通知</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>DEPLOYMENT-RESOURCES-NOTICE</t>
-  </si>
-  <si>
-    <t>部署资源通知</t>
-  </si>
-  <si>
-    <t>部署实例、网络、域名等资源失败通知</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>STREAM-CHANGE-NOTICE</t>
-  </si>
-  <si>
-    <t>流水线通知</t>
-  </si>
-  <si>
-    <t>应用服务开发过程中流水线的变更通知，包括：待审批、成功、失败、被终止</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>RESOURCE-SECURITY-NOTICE</t>
-  </si>
-  <si>
-    <t>资源删除验证</t>
-  </si>
-  <si>
-    <t>涉及到实例或资源删除这一系列敏感操作，向用户发送确认信息</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>ADD-OR-IMPORT-USER</t>
-  </si>
-  <si>
-    <t>添加/导入用户通知</t>
-  </si>
-  <si>
-    <t>添加或者导入用户的通知</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>APP-DEPLOYMENT-NOTICE</t>
-  </si>
-  <si>
-    <t>应用部署通知</t>
-  </si>
-  <si>
-    <t>部署实例状态通知</t>
-  </si>
-  <si>
-    <t>值集查询视图头表</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_header</t>
-  </si>
-  <si>
-    <t>*view_header_id</t>
-  </si>
-  <si>
-    <t>#view_code</t>
-  </si>
-  <si>
-    <t>view_name:zh_CN</t>
-  </si>
-  <si>
-    <t>view_name:en_US</t>
-  </si>
-  <si>
-    <t>lov_id</t>
   </si>
   <si>
     <t>title:zh_CN</t>
@@ -2274,9 +2280,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2355,6 +2361,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2362,7 +2428,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2376,91 +2458,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2474,11 +2474,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2490,9 +2490,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2574,7 +2580,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2586,31 +2718,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2622,139 +2760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2861,17 +2867,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2880,6 +2895,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2901,45 +2936,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2964,10 +2970,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2976,133 +2982,133 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3810,10 +3816,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K18" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="M13" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -3826,8 +3832,11 @@
     <col min="10" max="10" width="31.4444444444444" customWidth="1"/>
     <col min="11" max="11" width="34.3333333333333" customWidth="1"/>
     <col min="12" max="12" width="24.3333333333333" customWidth="1"/>
-    <col min="15" max="15" width="15.5" customWidth="1"/>
-    <col min="16" max="16" width="26" customWidth="1"/>
+    <col min="13" max="14" width="25.8333333333333" customWidth="1"/>
+    <col min="15" max="15" width="23.6666666666667" customWidth="1"/>
+    <col min="16" max="16" width="15.5" customWidth="1"/>
+    <col min="17" max="17" width="26" customWidth="1"/>
+    <col min="20" max="20" width="14.9166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3855,7 +3864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3895,7 +3904,7 @@
       <c r="M7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="3" t="s">
         <v>63</v>
       </c>
       <c r="O7" t="s">
@@ -3922,78 +3931,87 @@
       <c r="V7" t="s">
         <v>71</v>
       </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="8" spans="5:21">
+    <row r="8" spans="5:22">
       <c r="E8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="5:22">
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
         <v>74</v>
       </c>
-      <c r="I8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" t="s">
-        <v>76</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="P9" t="s">
         <v>77</v>
       </c>
-      <c r="U8" t="s">
-        <v>77</v>
+      <c r="U9" t="s">
+        <v>78</v>
+      </c>
+      <c r="V9" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="9" spans="5:21">
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" t="s">
-        <v>76</v>
-      </c>
-      <c r="T9" t="s">
-        <v>77</v>
-      </c>
-      <c r="U9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4001,28 +4019,28 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s">
         <v>60</v>
@@ -4033,715 +4051,772 @@
       <c r="M11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N11" t="s">
-        <v>89</v>
+      <c r="N11" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="O11" t="s">
         <v>90</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" t="s">
         <v>91</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="3" t="s">
         <v>92</v>
       </c>
       <c r="R11" t="s">
         <v>93</v>
       </c>
       <c r="S11" t="s">
-        <v>70</v>
+        <v>94</v>
+      </c>
+      <c r="T11" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="12" spans="5:19">
+    <row r="12" spans="5:20">
       <c r="E12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F12" t="str">
         <f>值集数据!$E$8</f>
         <v>hpfm_lov-8</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="s">
+        <v>78</v>
+      </c>
+      <c r="T12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="5:20">
+      <c r="E13" t="s">
         <v>95</v>
-      </c>
-      <c r="I12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12" t="s">
-        <v>77</v>
-      </c>
-      <c r="S12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="5:19">
-      <c r="E13" t="s">
-        <v>94</v>
       </c>
       <c r="F13" t="str">
         <f>值集数据!$E$8</f>
         <v>hpfm_lov-8</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
-      </c>
-      <c r="O13" t="s">
-        <v>97</v>
-      </c>
-      <c r="S13" t="s">
         <v>77</v>
       </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="s">
+        <v>98</v>
+      </c>
+      <c r="T13" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="14" spans="5:19">
+    <row r="14" spans="5:20">
       <c r="E14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" t="str">
         <f>值集数据!$E$8</f>
         <v>hpfm_lov-8</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O14" t="s">
-        <v>99</v>
-      </c>
-      <c r="S14" t="s">
         <v>77</v>
       </c>
+      <c r="N14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T14" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="15" spans="5:19">
+    <row r="15" spans="5:20">
       <c r="E15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
-      </c>
-      <c r="O15" t="s">
-        <v>102</v>
+        <v>77</v>
+      </c>
+      <c r="N15" t="s">
+        <v>77</v>
       </c>
       <c r="P15" t="s">
-        <v>98</v>
-      </c>
-      <c r="S15" t="s">
-        <v>77</v>
+        <v>103</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>99</v>
+      </c>
+      <c r="T15" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="16" spans="5:19">
+    <row r="16" spans="5:20">
       <c r="E16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="s">
         <v>103</v>
       </c>
-      <c r="I16" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O16" t="s">
-        <v>102</v>
-      </c>
-      <c r="P16" t="s">
-        <v>98</v>
-      </c>
-      <c r="S16" t="s">
-        <v>77</v>
+      <c r="Q16" t="s">
+        <v>99</v>
+      </c>
+      <c r="T16" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="17" spans="5:19">
+    <row r="17" spans="5:20">
       <c r="E17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O17" t="s">
-        <v>108</v>
+        <v>77</v>
+      </c>
+      <c r="N17" t="s">
+        <v>77</v>
       </c>
       <c r="P17" t="s">
-        <v>96</v>
-      </c>
-      <c r="S17" t="s">
-        <v>77</v>
+        <v>109</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>97</v>
+      </c>
+      <c r="T17" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="18" spans="5:19">
+    <row r="18" spans="5:20">
       <c r="E18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18" t="s">
-        <v>112</v>
+        <v>77</v>
+      </c>
+      <c r="N18" t="s">
+        <v>77</v>
       </c>
       <c r="P18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>96</v>
+      </c>
+      <c r="T18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="5:20">
+      <c r="E19" t="s">
         <v>95</v>
-      </c>
-      <c r="S18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="5:19">
-      <c r="E19" t="s">
-        <v>94</v>
       </c>
       <c r="F19" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" t="s">
-        <v>102</v>
+        <v>77</v>
+      </c>
+      <c r="N19" t="s">
+        <v>77</v>
       </c>
       <c r="P19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>96</v>
+      </c>
+      <c r="T19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="5:20">
+      <c r="E20" t="s">
         <v>95</v>
-      </c>
-      <c r="S19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="5:19">
-      <c r="E20" t="s">
-        <v>94</v>
       </c>
       <c r="F20" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20" t="s">
-        <v>119</v>
+        <v>77</v>
+      </c>
+      <c r="N20" t="s">
+        <v>77</v>
       </c>
       <c r="P20" t="s">
-        <v>96</v>
-      </c>
-      <c r="S20" t="s">
-        <v>77</v>
+        <v>120</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>97</v>
+      </c>
+      <c r="T20" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="21" spans="5:19">
+    <row r="21" spans="5:20">
       <c r="E21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M21" t="s">
-        <v>76</v>
-      </c>
-      <c r="O21" t="s">
-        <v>102</v>
+        <v>77</v>
+      </c>
+      <c r="N21" t="s">
+        <v>77</v>
       </c>
       <c r="P21" t="s">
-        <v>98</v>
-      </c>
-      <c r="S21" t="s">
-        <v>77</v>
+        <v>103</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>99</v>
+      </c>
+      <c r="T21" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="22" spans="5:19">
+    <row r="22" spans="5:20">
       <c r="E22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F22" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M22" t="s">
-        <v>76</v>
-      </c>
-      <c r="O22" t="s">
-        <v>126</v>
+        <v>77</v>
+      </c>
+      <c r="N22" t="s">
+        <v>77</v>
       </c>
       <c r="P22" t="s">
-        <v>98</v>
-      </c>
-      <c r="S22" t="s">
-        <v>77</v>
+        <v>127</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>99</v>
+      </c>
+      <c r="T22" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="23" spans="5:19">
+    <row r="23" spans="5:20">
       <c r="E23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F23" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M23" t="s">
-        <v>76</v>
-      </c>
-      <c r="O23" t="s">
-        <v>119</v>
+        <v>77</v>
+      </c>
+      <c r="N23" t="s">
+        <v>77</v>
       </c>
       <c r="P23" t="s">
-        <v>98</v>
-      </c>
-      <c r="S23" t="s">
-        <v>77</v>
+        <v>120</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>99</v>
+      </c>
+      <c r="T23" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="24" spans="5:19">
+    <row r="24" spans="5:20">
       <c r="E24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F24" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M24" t="s">
-        <v>76</v>
-      </c>
-      <c r="O24" t="s">
-        <v>133</v>
+        <v>77</v>
+      </c>
+      <c r="N24" t="s">
+        <v>77</v>
       </c>
       <c r="P24" t="s">
-        <v>98</v>
-      </c>
-      <c r="S24" t="s">
-        <v>77</v>
+        <v>134</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>99</v>
+      </c>
+      <c r="T24" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="25" spans="5:19">
+    <row r="25" spans="5:20">
       <c r="E25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F25" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M25" t="s">
-        <v>76</v>
-      </c>
-      <c r="O25" t="s">
-        <v>137</v>
+        <v>77</v>
+      </c>
+      <c r="N25" t="s">
+        <v>77</v>
       </c>
       <c r="P25" t="s">
-        <v>98</v>
-      </c>
-      <c r="S25" t="s">
-        <v>77</v>
+        <v>138</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>99</v>
+      </c>
+      <c r="T25" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="26" spans="5:19">
+    <row r="26" spans="5:20">
       <c r="E26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F26" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M26" t="s">
-        <v>76</v>
-      </c>
-      <c r="O26" t="s">
-        <v>141</v>
+        <v>77</v>
+      </c>
+      <c r="N26" t="s">
+        <v>77</v>
       </c>
       <c r="P26" t="s">
-        <v>98</v>
-      </c>
-      <c r="S26" t="s">
-        <v>77</v>
+        <v>142</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>99</v>
+      </c>
+      <c r="T26" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="27" spans="5:19">
+    <row r="27" spans="5:20">
       <c r="E27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F27" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M27" t="s">
-        <v>76</v>
-      </c>
-      <c r="O27" t="s">
-        <v>145</v>
+        <v>77</v>
+      </c>
+      <c r="N27" t="s">
+        <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>98</v>
-      </c>
-      <c r="S27" t="s">
-        <v>77</v>
+        <v>146</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>99</v>
+      </c>
+      <c r="T27" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="28" spans="5:19">
+    <row r="28" spans="5:20">
       <c r="E28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F28" t="str">
         <f>值集数据!$E$9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M28" t="s">
-        <v>76</v>
-      </c>
-      <c r="O28" t="s">
-        <v>149</v>
+        <v>77</v>
+      </c>
+      <c r="N28" t="s">
+        <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>98</v>
-      </c>
-      <c r="S28" t="s">
-        <v>77</v>
+        <v>150</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>99</v>
+      </c>
+      <c r="T28" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="29" spans="5:19">
+    <row r="29" spans="5:20">
       <c r="E29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F29" t="str">
         <f>E9</f>
         <v>hpfm_lov-9</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="O29">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>14</v>
       </c>
-      <c r="P29" t="s">
-        <v>98</v>
-      </c>
-      <c r="S29">
+      <c r="Q29" t="s">
+        <v>99</v>
+      </c>
+      <c r="T29">
         <v>1</v>
       </c>
     </row>
@@ -4753,58 +4828,58 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="K31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="T31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -4815,46 +4890,46 @@
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M33" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N33" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O33" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-message-category-lov.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D858F90-8C41-42A6-8483-64CE2F29BBD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -16,18 +22,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="190">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -46,6 +53,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -58,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -76,6 +85,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -94,6 +104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -112,6 +123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -143,6 +155,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -161,6 +174,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -179,6 +193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -200,6 +215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -220,6 +236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -240,6 +257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -260,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -280,6 +299,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -291,6 +311,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -309,6 +330,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -320,6 +342,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -338,6 +361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -356,6 +380,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -374,6 +399,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -392,6 +418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -439,6 +466,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -457,6 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -475,6 +504,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -493,6 +523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -504,6 +535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -522,6 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -540,6 +573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -559,6 +593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -577,6 +612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -596,6 +632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -614,6 +651,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -625,6 +663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -643,6 +682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -661,6 +701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -684,6 +725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -702,6 +744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -720,6 +763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -738,6 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -756,6 +801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -767,6 +813,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -785,6 +832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -795,6 +843,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -815,6 +864,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -825,6 +875,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -843,6 +894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -861,6 +913,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -884,6 +937,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -902,6 +956,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -921,6 +976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -940,6 +996,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -959,6 +1016,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -979,6 +1037,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -998,6 +1057,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1032,6 +1092,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1052,6 +1113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1063,6 +1125,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1081,6 +1144,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1101,6 +1165,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1119,6 +1184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1131,6 +1197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1149,6 +1216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1167,6 +1235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1185,6 +1254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1199,6 +1269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1217,6 +1288,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1235,6 +1307,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1253,6 +1326,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1271,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1286,6 +1361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1295,6 +1371,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1313,6 +1390,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1328,6 +1406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1337,6 +1416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1355,6 +1435,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1369,6 +1450,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1387,6 +1469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1405,6 +1488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1424,6 +1508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1447,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1465,6 +1551,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1483,6 +1570,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1502,6 +1590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1522,6 +1611,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1532,6 +1622,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1541,6 +1632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1552,6 +1644,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1570,6 +1663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1588,6 +1682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1606,6 +1701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1625,6 +1721,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1643,6 +1740,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1661,6 +1759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1680,6 +1779,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1698,6 +1798,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1716,6 +1817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1734,6 +1836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1753,6 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1764,6 +1868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1774,6 +1879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1783,6 +1889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1794,6 +1901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1812,6 +1920,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1823,6 +1932,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1841,6 +1951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1860,6 +1971,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2272,19 +2384,53 @@
   </si>
   <si>
     <t>table_field_width</t>
+  </si>
+  <si>
+    <t>MARKET_APP_AUDIT</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场应用审核通知</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场应用待审核通知</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>SITE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARKET_APP_REJECTED</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用发布驳回通知</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARKET_APP_PASS</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用发布通过通知</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDUCM_MEMBER</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码库权限通知</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2295,30 +2441,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2326,6 +2473,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2344,6 +2492,7 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2351,157 +2500,6 @@
       <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2532,12 +2530,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2546,8 +2546,21 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2578,194 +2591,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2866,254 +2693,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3127,20 +2712,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3174,9 +2747,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3184,59 +2754,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3309,6 +2848,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3566,280 +3108,277 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="12" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="14" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="24" t="s">
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="52.2">
+      <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="27" t="s">
+    <row r="10" spans="1:8" ht="52.2">
+      <c r="C10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="1:8" ht="69.599999999999994">
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="21" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="29" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="33" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="33" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="33" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="33" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="22" t="s">
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="35" t="s">
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
+      <c r="C27" s="30" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:W33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M13" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="28.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="44.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="38.0833333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="31.4444444444444" customWidth="1"/>
-    <col min="11" max="11" width="34.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="24.3333333333333" customWidth="1"/>
-    <col min="13" max="14" width="25.8333333333333" customWidth="1"/>
-    <col min="15" max="15" width="23.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="44.4140625" customWidth="1"/>
+    <col min="8" max="8" width="38.08203125" customWidth="1"/>
+    <col min="9" max="9" width="22.9140625" customWidth="1"/>
+    <col min="10" max="10" width="31.4140625" customWidth="1"/>
+    <col min="11" max="11" width="34.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="14" width="25.83203125" customWidth="1"/>
+    <col min="15" max="15" width="41.08203125" customWidth="1"/>
     <col min="16" max="16" width="15.5" customWidth="1"/>
     <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="20" max="20" width="14.9166666666667" customWidth="1"/>
+    <col min="20" max="20" width="14.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3853,7 +3392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:23">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3935,7 +3474,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="5:22">
+    <row r="8" spans="1:23">
       <c r="E8" t="s">
         <v>73</v>
       </c>
@@ -3970,7 +3509,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="5:22">
+    <row r="9" spans="1:23">
       <c r="E9" t="s">
         <v>79</v>
       </c>
@@ -4011,7 +3550,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4073,7 +3612,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="5:20">
+    <row r="12" spans="1:23">
       <c r="E12" t="s">
         <v>95</v>
       </c>
@@ -4112,7 +3651,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="5:20">
+    <row r="13" spans="1:23">
       <c r="E13" t="s">
         <v>95</v>
       </c>
@@ -4151,7 +3690,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="5:20">
+    <row r="14" spans="1:23">
       <c r="E14" t="s">
         <v>95</v>
       </c>
@@ -4190,7 +3729,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="5:20">
+    <row r="15" spans="1:23">
       <c r="E15" t="s">
         <v>95</v>
       </c>
@@ -4232,7 +3771,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="5:20">
+    <row r="16" spans="1:23">
       <c r="E16" t="s">
         <v>95</v>
       </c>
@@ -4351,8 +3890,8 @@
       <c r="P18" t="s">
         <v>113</v>
       </c>
-      <c r="Q18" t="s">
-        <v>96</v>
+      <c r="Q18" s="31" t="s">
+        <v>183</v>
       </c>
       <c r="T18" t="s">
         <v>78</v>
@@ -4804,11 +4343,11 @@
       <c r="L29" t="s">
         <v>153</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
+      <c r="M29" t="s">
+        <v>77</v>
+      </c>
+      <c r="N29" t="s">
+        <v>77</v>
       </c>
       <c r="P29">
         <v>14</v>
@@ -4820,120 +4359,291 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
+    <row r="30" spans="5:20">
+      <c r="E30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" t="str">
+        <f>E9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="M30" t="s">
+        <v>77</v>
+      </c>
+      <c r="N30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="5:20">
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" t="str">
+        <f>E9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="M31" t="s">
+        <v>77</v>
+      </c>
+      <c r="N31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="5:20">
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="str">
+        <f>E9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="M32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" t="str">
+        <f>E9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="L33" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="M33" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="H34" s="31"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
         <v>50</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>51</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C35" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G35" t="s">
         <v>158</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H35" t="s">
         <v>159</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K35" t="s">
         <v>68</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L35" t="s">
         <v>69</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M35" t="s">
         <v>162</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N35" t="s">
         <v>163</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O35" t="s">
         <v>164</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P35" t="s">
         <v>165</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q35" t="s">
         <v>166</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R35" t="s">
         <v>167</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S35" t="s">
         <v>168</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
-      <c r="A33" t="s">
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
         <v>50</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>51</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C37" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G37" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I37" t="s">
         <v>174</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J37" t="s">
         <v>175</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K37" t="s">
         <v>91</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M37" t="s">
         <v>177</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N37" t="s">
         <v>178</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O37" t="s">
         <v>179</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P37" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-message-category-lov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D858F90-8C41-42A6-8483-64CE2F29BBD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5DC3BB-58F8-4DA8-B9AD-1F6ADBCE3266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="186">
   <si>
     <r>
       <rPr>
@@ -2386,14 +2386,6 @@
     <t>table_field_width</t>
   </si>
   <si>
-    <t>MARKET_APP_AUDIT</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场应用审核通知</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>市场应用待审核通知</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2402,27 +2394,19 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>MARKET_APP_REJECTED</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用发布驳回通知</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MARKET_APP_PASS</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用发布通过通知</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>RDUCM_MEMBER</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>代码库权限通知</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARKET_APP</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场应用通知</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3355,10 +3339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3891,7 +3875,7 @@
         <v>113</v>
       </c>
       <c r="Q18" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T18" t="s">
         <v>78</v>
@@ -4371,19 +4355,19 @@
         <v>80</v>
       </c>
       <c r="H30" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="K30" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="I30" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="K30" s="31" t="s">
-        <v>182</v>
-      </c>
       <c r="L30" s="31" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M30" t="s">
         <v>77</v>
@@ -4395,7 +4379,7 @@
         <v>7</v>
       </c>
       <c r="Q30" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -4413,19 +4397,19 @@
         <v>80</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M31" t="s">
         <v>77</v>
@@ -4434,101 +4418,79 @@
         <v>77</v>
       </c>
       <c r="P31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="5:20">
-      <c r="E32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" t="str">
-        <f>E9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G32" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="J32" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="K32" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="L32" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="M32" t="s">
-        <v>77</v>
-      </c>
-      <c r="N32" t="s">
-        <v>77</v>
-      </c>
-      <c r="P32">
-        <v>9</v>
-      </c>
-      <c r="Q32" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
+      <c r="H32" s="31"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="E33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" t="str">
-        <f>E9</f>
-        <v>hpfm_lov-9</v>
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="J33" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="K33" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="L33" s="31" t="s">
-        <v>189</v>
+        <v>158</v>
+      </c>
+      <c r="H33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33" t="s">
+        <v>69</v>
       </c>
       <c r="M33" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="N33" t="s">
-        <v>77</v>
-      </c>
-      <c r="P33">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="H34" s="31"/>
+        <v>163</v>
+      </c>
+      <c r="O33" t="s">
+        <v>164</v>
+      </c>
+      <c r="P33" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>166</v>
+      </c>
+      <c r="R33" t="s">
+        <v>167</v>
+      </c>
+      <c r="S33" t="s">
+        <v>168</v>
+      </c>
+      <c r="T33" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
@@ -4538,107 +4500,45 @@
         <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G35" t="s">
-        <v>158</v>
-      </c>
-      <c r="H35" t="s">
-        <v>159</v>
-      </c>
-      <c r="I35" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>161</v>
+      <c r="I35" t="s">
+        <v>174</v>
+      </c>
+      <c r="J35" t="s">
+        <v>175</v>
       </c>
       <c r="K35" t="s">
-        <v>68</v>
-      </c>
-      <c r="L35" t="s">
-        <v>69</v>
+        <v>91</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="M35" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="N35" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="O35" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>166</v>
-      </c>
-      <c r="R35" t="s">
-        <v>167</v>
-      </c>
-      <c r="S35" t="s">
-        <v>168</v>
-      </c>
-      <c r="T35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G37" t="s">
-        <v>173</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I37" t="s">
-        <v>174</v>
-      </c>
-      <c r="J37" t="s">
-        <v>175</v>
-      </c>
-      <c r="K37" t="s">
-        <v>91</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="M37" t="s">
-        <v>177</v>
-      </c>
-      <c r="N37" t="s">
-        <v>178</v>
-      </c>
-      <c r="O37" t="s">
-        <v>179</v>
-      </c>
-      <c r="P37" t="s">
         <v>71</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-message-category-lov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5DC3BB-58F8-4DA8-B9AD-1F6ADBCE3266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463D6ED7-783E-4F90-A7B8-51CBD471B0A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="185">
   <si>
     <r>
       <rPr>
@@ -2384,10 +2384,6 @@
   </si>
   <si>
     <t>table_field_width</t>
-  </si>
-  <si>
-    <t>市场应用待审核通知</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>SITE</t>
@@ -3341,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3875,7 +3871,7 @@
         <v>113</v>
       </c>
       <c r="Q18" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T18" t="s">
         <v>78</v>
@@ -4355,19 +4351,19 @@
         <v>80</v>
       </c>
       <c r="H30" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="I30" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="I30" s="31" t="s">
-        <v>185</v>
-      </c>
       <c r="J30" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K30" s="31" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M30" t="s">
         <v>77</v>
@@ -4379,7 +4375,7 @@
         <v>7</v>
       </c>
       <c r="Q30" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -4397,19 +4393,19 @@
         <v>80</v>
       </c>
       <c r="H31" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="I31" s="31" t="s">
-        <v>183</v>
-      </c>
       <c r="J31" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M31" t="s">
         <v>77</v>
@@ -4421,7 +4417,7 @@
         <v>10</v>
       </c>
       <c r="Q31" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -4545,5 +4541,6 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-message-category-lov.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463D6ED7-783E-4F90-A7B8-51CBD471B0A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,19 +16,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="150">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -53,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -66,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -85,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -104,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -123,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -155,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -174,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -193,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -215,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -236,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -257,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -278,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -299,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -311,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -330,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -342,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -361,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -380,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -399,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -418,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -466,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -485,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -504,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -523,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -535,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -554,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -573,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -593,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -612,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -632,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -651,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -663,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -682,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -701,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -725,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -744,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -763,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -782,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -801,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -813,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -832,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -843,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -864,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -875,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -894,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -913,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -937,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -956,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -976,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -996,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1016,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1037,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1057,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1092,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1113,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1125,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1144,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1165,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1184,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1197,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1216,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1235,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1254,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1269,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1288,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1307,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1326,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1345,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1361,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1371,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1390,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1406,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1416,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1435,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1450,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1488,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1508,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1532,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1551,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1570,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1590,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1611,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1622,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1632,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1644,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1663,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1682,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1701,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1721,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1740,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1759,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1779,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1798,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1817,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1836,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1856,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1868,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1879,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1889,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1901,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1920,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1932,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1951,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1971,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2149,54 +2037,42 @@
     <t>3</t>
   </si>
   <si>
-    <t>ENV-NOTICE</t>
-  </si>
-  <si>
-    <t>环境通知</t>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>用户的操作触发的其他类型通知</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>SYS-MANAGEMENT</t>
+  </si>
+  <si>
+    <t>系统通知</t>
+  </si>
+  <si>
+    <t>关于平台层一系列操作的通知</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ACCOUNT-SECURITY-NOTICE</t>
+  </si>
+  <si>
+    <t>账户安全通知</t>
+  </si>
+  <si>
+    <t>用户账户密码被修改后，进行安全警示或身份认证</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>CLUSTER-NOTICE</t>
-  </si>
-  <si>
-    <t>集群通知</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>用户的操作触发的其他类型通知</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>SYS-MANAGEMENT</t>
-  </si>
-  <si>
-    <t>系统通知</t>
-  </si>
-  <si>
-    <t>关于平台层一系列操作的通知</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>ACCOUNT-SECURITY-NOTICE</t>
-  </si>
-  <si>
-    <t>账户安全通知</t>
-  </si>
-  <si>
-    <t>用户账户密码被修改后，进行安全警示或身份认证</t>
-  </si>
-  <si>
     <t>ORG-MANAGEMENT</t>
   </si>
   <si>
@@ -2218,75 +2094,6 @@
     <t>项目管理过程中触发的一系列事件的通知</t>
   </si>
   <si>
-    <t>ISSUE-STATUS-CHANGE-NOTICE</t>
-  </si>
-  <si>
-    <t>敏捷通知</t>
-  </si>
-  <si>
-    <t>敏捷管理过程中问题项的处理状态变化：创建、分配、已解决</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>APP-SERVICE-NOTICE</t>
-  </si>
-  <si>
-    <t>应用服务通知</t>
-  </si>
-  <si>
-    <t>应用服务创建失败、启用、停用通知</t>
-  </si>
-  <si>
-    <t>CODE-MANAGEMENT-NOTICE</t>
-  </si>
-  <si>
-    <t>代码管理通知</t>
-  </si>
-  <si>
-    <t>合并请求以及持续集成通知</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>DEPLOYMENT-RESOURCES-NOTICE</t>
-  </si>
-  <si>
-    <t>部署资源通知</t>
-  </si>
-  <si>
-    <t>部署实例、网络、域名等资源失败通知</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>STREAM-CHANGE-NOTICE</t>
-  </si>
-  <si>
-    <t>流水线通知</t>
-  </si>
-  <si>
-    <t>应用服务开发过程中流水线的变更通知，包括：待审批、成功、失败、被终止</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>RESOURCE-SECURITY-NOTICE</t>
-  </si>
-  <si>
-    <t>资源删除验证</t>
-  </si>
-  <si>
-    <t>涉及到实例或资源删除这一系列敏感操作，向用户发送确认信息</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>ADD-OR-IMPORT-USER</t>
   </si>
   <si>
@@ -2299,15 +2106,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>APP-DEPLOYMENT-NOTICE</t>
-  </si>
-  <si>
-    <t>应用部署通知</t>
-  </si>
-  <si>
-    <t>部署实例状态通知</t>
-  </si>
-  <si>
     <t>值集查询视图头表</t>
   </si>
   <si>
@@ -2384,33 +2182,19 @@
   </si>
   <si>
     <t>table_field_width</t>
-  </si>
-  <si>
-    <t>SITE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>RDUCM_MEMBER</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码库权限通知</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MARKET_APP</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场应用通知</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2421,31 +2205,36 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2453,7 +2242,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2472,7 +2260,6 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2480,6 +2267,157 @@
       <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2510,14 +2448,12 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2526,21 +2462,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2571,8 +2494,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2673,10 +2782,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2684,6 +3035,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2692,32 +3044,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2727,35 +3091,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2828,9 +3226,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3088,277 +3483,280 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="8"/>
-      <c r="C1" s="33" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="10"/>
+    <row r="2" spans="5:5">
+      <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="32" t="s">
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="35" t="s">
+    <row r="4" spans="3:7">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="14" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="17" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
-      <c r="C9" s="20" t="s">
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
-      <c r="C10" s="23" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="C11" s="17" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="17" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
+    <row r="13" spans="3:5">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+    <row r="14" spans="3:5">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="C15" s="25" t="s">
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="28" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="28" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="28" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="28" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="29" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="32"/>
+      <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="18" t="s">
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="32"/>
+      <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
-      <c r="C27" s="30" t="s">
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.8333333333333" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="44.4140625" customWidth="1"/>
-    <col min="8" max="8" width="38.08203125" customWidth="1"/>
-    <col min="9" max="9" width="22.9140625" customWidth="1"/>
-    <col min="10" max="10" width="31.4140625" customWidth="1"/>
-    <col min="11" max="11" width="34.33203125" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="14" width="25.83203125" customWidth="1"/>
-    <col min="15" max="15" width="41.08203125" customWidth="1"/>
+    <col min="7" max="7" width="44.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="38.0833333333333" customWidth="1"/>
+    <col min="9" max="9" width="22.9166666666667" customWidth="1"/>
+    <col min="10" max="10" width="31.4166666666667" customWidth="1"/>
+    <col min="11" max="11" width="34.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="24.3333333333333" customWidth="1"/>
+    <col min="13" max="14" width="25.8333333333333" customWidth="1"/>
+    <col min="15" max="15" width="41.0833333333333" customWidth="1"/>
     <col min="16" max="16" width="15.5" customWidth="1"/>
     <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="20" max="20" width="14.9140625" customWidth="1"/>
+    <col min="20" max="20" width="14.9166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3372,7 +3770,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3454,7 +3852,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="5:22">
       <c r="E8" t="s">
         <v>73</v>
       </c>
@@ -3489,7 +3887,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="5:22">
       <c r="E9" t="s">
         <v>79</v>
       </c>
@@ -3530,7 +3928,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3592,7 +3990,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="5:20">
       <c r="E12" t="s">
         <v>95</v>
       </c>
@@ -3631,7 +4029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="5:20">
       <c r="E13" t="s">
         <v>95</v>
       </c>
@@ -3670,7 +4068,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="5:20">
       <c r="E14" t="s">
         <v>95</v>
       </c>
@@ -3709,7 +4107,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="5:20">
       <c r="E15" t="s">
         <v>95</v>
       </c>
@@ -3730,10 +4128,10 @@
         <v>102</v>
       </c>
       <c r="K15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" t="s">
         <v>77</v>
@@ -3742,16 +4140,16 @@
         <v>77</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="5:20">
       <c r="E16" t="s">
         <v>95</v>
       </c>
@@ -3763,19 +4161,19 @@
         <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M16" t="s">
         <v>77</v>
@@ -3784,10 +4182,10 @@
         <v>77</v>
       </c>
       <c r="P16" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>99</v>
+        <v>108</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="T16" t="s">
         <v>78</v>
@@ -3805,19 +4203,19 @@
         <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M17" t="s">
         <v>77</v>
@@ -3826,10 +4224,10 @@
         <v>77</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T17" t="s">
         <v>78</v>
@@ -3847,19 +4245,19 @@
         <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M18" t="s">
         <v>77</v>
@@ -3868,10 +4266,10 @@
         <v>77</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q18" s="31" t="s">
-        <v>180</v>
+        <v>116</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>97</v>
       </c>
       <c r="T18" t="s">
         <v>78</v>
@@ -3889,19 +4287,19 @@
         <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M19" t="s">
         <v>77</v>
@@ -3910,10 +4308,10 @@
         <v>77</v>
       </c>
       <c r="P19" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="Q19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T19" t="s">
         <v>78</v>
@@ -3931,19 +4329,19 @@
         <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M20" t="s">
         <v>77</v>
@@ -3952,595 +4350,133 @@
         <v>77</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="5:20">
-      <c r="E21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" t="str">
-        <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" t="s">
-        <v>122</v>
-      </c>
-      <c r="J21" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" t="s">
-        <v>123</v>
-      </c>
-      <c r="L21" t="s">
-        <v>123</v>
-      </c>
-      <c r="M21" t="s">
-        <v>77</v>
-      </c>
-      <c r="N21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P21" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>99</v>
-      </c>
-      <c r="T21" t="s">
-        <v>78</v>
-      </c>
+    <row r="21" spans="8:8">
+      <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="5:20">
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="str">
-        <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I22" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="K22" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="L22" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="M22" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="N22" t="s">
-        <v>77</v>
+        <v>133</v>
+      </c>
+      <c r="O22" t="s">
+        <v>134</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="Q22" t="s">
-        <v>99</v>
+        <v>136</v>
+      </c>
+      <c r="R22" t="s">
+        <v>137</v>
+      </c>
+      <c r="S22" t="s">
+        <v>138</v>
       </c>
       <c r="T22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="23" spans="5:20">
-      <c r="E23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" t="str">
-        <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" t="s">
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L23" t="s">
-        <v>130</v>
-      </c>
-      <c r="M23" t="s">
-        <v>77</v>
-      </c>
-      <c r="N23" t="s">
-        <v>77</v>
-      </c>
-      <c r="P23" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>99</v>
-      </c>
-      <c r="T23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="5:20">
-      <c r="E24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" t="str">
-        <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" t="s">
-        <v>131</v>
-      </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L24" t="s">
-        <v>133</v>
+        <v>91</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="M24" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="N24" t="s">
-        <v>77</v>
+        <v>148</v>
+      </c>
+      <c r="O24" t="s">
+        <v>149</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>99</v>
-      </c>
-      <c r="T24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="5:20">
-      <c r="E25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" t="str">
-        <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J25" t="s">
-        <v>136</v>
-      </c>
-      <c r="K25" t="s">
-        <v>137</v>
-      </c>
-      <c r="L25" t="s">
-        <v>137</v>
-      </c>
-      <c r="M25" t="s">
-        <v>77</v>
-      </c>
-      <c r="N25" t="s">
-        <v>77</v>
-      </c>
-      <c r="P25" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>99</v>
-      </c>
-      <c r="T25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="5:20">
-      <c r="E26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" t="str">
-        <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" t="s">
-        <v>140</v>
-      </c>
-      <c r="J26" t="s">
-        <v>140</v>
-      </c>
-      <c r="K26" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" t="s">
-        <v>141</v>
-      </c>
-      <c r="M26" t="s">
-        <v>77</v>
-      </c>
-      <c r="N26" t="s">
-        <v>77</v>
-      </c>
-      <c r="P26" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>99</v>
-      </c>
-      <c r="T26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="5:20">
-      <c r="E27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" t="str">
-        <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G27" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" t="s">
-        <v>143</v>
-      </c>
-      <c r="I27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J27" t="s">
-        <v>144</v>
-      </c>
-      <c r="K27" t="s">
-        <v>145</v>
-      </c>
-      <c r="L27" t="s">
-        <v>145</v>
-      </c>
-      <c r="M27" t="s">
-        <v>77</v>
-      </c>
-      <c r="N27" t="s">
-        <v>77</v>
-      </c>
-      <c r="P27" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>99</v>
-      </c>
-      <c r="T27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="5:20">
-      <c r="E28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" t="str">
-        <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" t="s">
-        <v>148</v>
-      </c>
-      <c r="J28" t="s">
-        <v>148</v>
-      </c>
-      <c r="K28" t="s">
-        <v>149</v>
-      </c>
-      <c r="L28" t="s">
-        <v>149</v>
-      </c>
-      <c r="M28" t="s">
-        <v>77</v>
-      </c>
-      <c r="N28" t="s">
-        <v>77</v>
-      </c>
-      <c r="P28" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>99</v>
-      </c>
-      <c r="T28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="5:20">
-      <c r="E29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" t="str">
-        <f>E9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" t="s">
-        <v>151</v>
-      </c>
-      <c r="I29" t="s">
-        <v>152</v>
-      </c>
-      <c r="J29" t="s">
-        <v>152</v>
-      </c>
-      <c r="K29" t="s">
-        <v>153</v>
-      </c>
-      <c r="L29" t="s">
-        <v>153</v>
-      </c>
-      <c r="M29" t="s">
-        <v>77</v>
-      </c>
-      <c r="N29" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29">
-        <v>14</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>99</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="5:20">
-      <c r="E30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" t="str">
-        <f>E9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G30" t="s">
-        <v>80</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="K30" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="L30" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="M30" t="s">
-        <v>77</v>
-      </c>
-      <c r="N30" t="s">
-        <v>77</v>
-      </c>
-      <c r="P30">
-        <v>7</v>
-      </c>
-      <c r="Q30" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="5:20">
-      <c r="E31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" t="str">
-        <f>E9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G31" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="K31" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="L31" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="M31" t="s">
-        <v>77</v>
-      </c>
-      <c r="N31" t="s">
-        <v>77</v>
-      </c>
-      <c r="P31">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="5:20">
-      <c r="H32" s="31"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H33" t="s">
-        <v>159</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K33" t="s">
-        <v>68</v>
-      </c>
-      <c r="L33" t="s">
-        <v>69</v>
-      </c>
-      <c r="M33" t="s">
-        <v>162</v>
-      </c>
-      <c r="N33" t="s">
-        <v>163</v>
-      </c>
-      <c r="O33" t="s">
-        <v>164</v>
-      </c>
-      <c r="P33" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>166</v>
-      </c>
-      <c r="R33" t="s">
-        <v>167</v>
-      </c>
-      <c r="S33" t="s">
-        <v>168</v>
-      </c>
-      <c r="T33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" t="s">
-        <v>173</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I35" t="s">
-        <v>174</v>
-      </c>
-      <c r="J35" t="s">
-        <v>175</v>
-      </c>
-      <c r="K35" t="s">
-        <v>91</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="M35" t="s">
-        <v>177</v>
-      </c>
-      <c r="N35" t="s">
-        <v>178</v>
-      </c>
-      <c r="O35" t="s">
-        <v>179</v>
-      </c>
-      <c r="P35" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/hzero-message-category-lov.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\框架\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463D6ED7-783E-4F90-A7B8-51CBD471B0A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C0414C-1795-40BC-A78D-20065219B3FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="187">
   <si>
     <r>
       <rPr>
@@ -2403,6 +2403,14 @@
   </si>
   <si>
     <t>市场应用通知</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE-COMMENT-NOTICE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题评论通知</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3098,21 +3106,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3127,7 +3135,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -3141,7 +3149,7 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="18">
       <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
@@ -3162,7 +3170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
@@ -3182,7 +3190,7 @@
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
@@ -3196,7 +3204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="23" t="s">
         <v>17</v>
       </c>
@@ -3207,7 +3215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
@@ -3239,7 +3247,7 @@
       <c r="D14" s="18"/>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
@@ -3262,7 +3270,7 @@
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="28" t="s">
         <v>31</v>
       </c>
@@ -3270,7 +3278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
@@ -3278,7 +3286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="28" t="s">
         <v>35</v>
       </c>
@@ -3286,7 +3294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="28" t="s">
         <v>37</v>
       </c>
@@ -3312,7 +3320,7 @@
       </c>
       <c r="E26" s="32"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="30" t="s">
         <v>43</v>
       </c>
@@ -3335,27 +3343,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="O19" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="44.4140625" customWidth="1"/>
-    <col min="8" max="8" width="38.08203125" customWidth="1"/>
-    <col min="9" max="9" width="22.9140625" customWidth="1"/>
-    <col min="10" max="10" width="31.4140625" customWidth="1"/>
+    <col min="7" max="7" width="44.44140625" customWidth="1"/>
+    <col min="8" max="8" width="38.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="31.44140625" customWidth="1"/>
     <col min="11" max="11" width="34.33203125" customWidth="1"/>
     <col min="12" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="14" width="25.83203125" customWidth="1"/>
-    <col min="15" max="15" width="41.08203125" customWidth="1"/>
-    <col min="16" max="16" width="15.5" customWidth="1"/>
+    <col min="13" max="14" width="25.77734375" customWidth="1"/>
+    <col min="15" max="15" width="41.109375" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" customWidth="1"/>
     <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="20" max="20" width="14.9140625" customWidth="1"/>
+    <col min="20" max="20" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -4424,117 +4432,159 @@
       </c>
     </row>
     <row r="32" spans="5:20">
-      <c r="H32" s="31"/>
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="str">
+        <f>E9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32">
+        <v>15</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>99</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" t="s">
+      <c r="H33" s="31"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
         <v>50</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>51</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>158</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>159</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K34" t="s">
         <v>68</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L34" t="s">
         <v>69</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M34" t="s">
         <v>162</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N34" t="s">
         <v>163</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O34" t="s">
         <v>164</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P34" t="s">
         <v>165</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q34" t="s">
         <v>166</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R34" t="s">
         <v>167</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S34" t="s">
         <v>168</v>
       </c>
-      <c r="T33" t="s">
+      <c r="T34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
         <v>50</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>173</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>174</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J36" t="s">
         <v>175</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K36" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M36" t="s">
         <v>177</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N36" t="s">
         <v>178</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O36" t="s">
         <v>179</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P36" t="s">
         <v>71</v>
       </c>
     </row>
